--- a/1. 文档日志/【小车接线】STM32F103C8T6引脚定义.xlsx
+++ b/1. 文档日志/【小车接线】STM32F103C8T6引脚定义.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\JESON\Desktop\正点精英版_野火_江科大\小车模块测试\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\JESON\Desktop\正点精英版_野火_江科大\【实战项目】麦轮遥控小车+机械臂\1. 文档日志\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55B9DBF-F7D8-40A3-A117-13A65023D81A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C43ECD8-B9E0-47D5-BE9D-1C537AEAE839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{D862D2F7-4BB5-4946-9DE3-EE852D9A2767}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{D862D2F7-4BB5-4946-9DE3-EE852D9A2767}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="177">
   <si>
     <t xml:space="preserve">I/O </t>
   </si>
@@ -36,15 +36,6 @@
     <t xml:space="preserve">S </t>
   </si>
   <si>
-    <t>TAMPER-RTC</t>
-  </si>
-  <si>
-    <t>OSC32_IN</t>
-  </si>
-  <si>
-    <t>OSC32_OUT</t>
-  </si>
-  <si>
     <t xml:space="preserve">OSC_IN </t>
   </si>
   <si>
@@ -506,10 +497,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PS2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TIM1_CH1N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -575,24 +562,6 @@
   </si>
   <si>
     <t>USART1/ADC12_0123/TIM2_1234</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>USART1/ADC12_0123/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TIM2_1234</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -623,10 +592,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>可以给PS2做硬件SPI，控制频率PS2可接受范围250KHz左右</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TIM3_1234</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -650,6 +615,121 @@
   </si>
   <si>
     <t>SPI2（36MHz）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>USART2/ADC12_0123/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TIM2_1234</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USART1调试串口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空闲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>可以给</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PS2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>做硬件SPI，控制频率PS2可接受范围250KHz左右</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左后MotorA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左前MotorB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右前MotorC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右后MotorD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前舵机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左舵机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右舵机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勿动（未引出）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OSC32_OUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OSC32_IN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAMPER-RTC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊功能待定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空闲合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC12_IN45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前还有SPI1、USB/CAN、MCO、I2C2/USART3、ADC12_IN45、GPIOC 模块引脚可供使用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -914,7 +994,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -926,16 +1015,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -953,6 +1033,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>62753</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>107578</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1136505</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>221153</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7303F91D-0B5D-AE06-716A-578EEAA35FB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12756777" y="591672"/>
+          <a:ext cx="7142857" cy="1323810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1255,10 +1384,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M50"/>
+  <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J58" sqref="J58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.6640625" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1271,44 +1400,45 @@
     <col min="6" max="6" width="46.88671875" style="1" customWidth="1"/>
     <col min="7" max="7" width="41.21875" style="1" customWidth="1"/>
     <col min="8" max="8" width="32.88671875" style="1" customWidth="1"/>
-    <col min="9" max="11" width="16.6640625" style="1"/>
-    <col min="12" max="12" width="32.88671875" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="2.21875" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="10" width="16.6640625" style="1"/>
+    <col min="11" max="11" width="21.5546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="37.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="36.44140625" style="1" hidden="1" customWidth="1"/>
     <col min="14" max="16384" width="16.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="A1" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
     </row>
     <row r="2" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1316,14 +1446,14 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -1333,71 +1463,76 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>3</v>
+        <v>172</v>
       </c>
       <c r="G4" s="7"/>
+      <c r="H4" s="24" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="5" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>4</v>
+        <v>171</v>
       </c>
       <c r="G5" s="7"/>
+      <c r="H5" s="24"/>
     </row>
     <row r="6" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>5</v>
+        <v>170</v>
       </c>
       <c r="G6" s="7"/>
+      <c r="H6" s="24"/>
     </row>
     <row r="7" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
@@ -1407,14 +1542,14 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -1424,14 +1559,14 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
@@ -1441,14 +1576,14 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -1458,14 +1593,14 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -1475,27 +1610,30 @@
         <v>10</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G12" s="7"/>
-      <c r="H12" s="26" t="s">
+      <c r="H12" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="J12" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="L12" s="26" t="s">
-        <v>157</v>
+      <c r="J12" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="K12" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1503,98 +1641,106 @@
         <v>11</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="H13" s="26"/>
-      <c r="J13" s="25"/>
-      <c r="L13" s="26"/>
+      <c r="H13" s="22"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
     </row>
     <row r="14" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>12</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="H14" s="26"/>
-      <c r="J14" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="L14" s="26"/>
+      <c r="H14" s="22"/>
+      <c r="J14" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="K14" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="L14" s="22"/>
     </row>
     <row r="15" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>13</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="H15" s="26"/>
-      <c r="J15" s="25"/>
-      <c r="L15" s="26"/>
+      <c r="H15" s="22"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="22"/>
     </row>
     <row r="16" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>14</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="H16" s="26" t="s">
-        <v>159</v>
+      <c r="H16" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="I16" s="22" t="s">
+        <v>175</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="K16" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="L16" s="26" t="s">
-        <v>150</v>
+        <v>133</v>
+      </c>
+      <c r="K16" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="L16" s="22" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1602,57 +1748,60 @@
         <v>15</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G17" s="7"/>
-      <c r="H17" s="26"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
       <c r="J17" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="K17" s="25"/>
-      <c r="L17" s="26"/>
+        <v>134</v>
+      </c>
+      <c r="K17" s="21"/>
+      <c r="L17" s="22"/>
     </row>
     <row r="18" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>16</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="26"/>
-      <c r="I18" s="24" t="s">
-        <v>161</v>
+        <v>19</v>
+      </c>
+      <c r="H18" s="22"/>
+      <c r="I18" s="23" t="s">
+        <v>155</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="K18" s="25"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26" t="s">
-        <v>151</v>
+        <v>135</v>
+      </c>
+      <c r="K18" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1660,56 +1809,59 @@
         <v>17</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="H19" s="26"/>
-      <c r="I19" s="24"/>
+        <v>137</v>
+      </c>
+      <c r="H19" s="22"/>
+      <c r="I19" s="23"/>
       <c r="J19" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K19" s="25"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="25"/>
+        <v>136</v>
+      </c>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="21"/>
     </row>
     <row r="20" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>18</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="I20" s="24"/>
-      <c r="L20" s="26" t="s">
-        <v>145</v>
+        <v>22</v>
+      </c>
+      <c r="H20" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="I20" s="23"/>
+      <c r="K20" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="L20" s="22" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1717,31 +1869,32 @@
         <v>19</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H21" s="26"/>
-      <c r="I21" s="24"/>
-      <c r="L21" s="26"/>
+        <v>24</v>
+      </c>
+      <c r="H21" s="22"/>
+      <c r="I21" s="23"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
     </row>
     <row r="22" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>20</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>0</v>
@@ -1750,17 +1903,20 @@
         <v>1</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
+      <c r="K22" s="1" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="23" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>21</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>0</v>
@@ -1769,19 +1925,22 @@
         <v>1</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H23" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="L23" s="26" t="s">
-        <v>146</v>
+        <v>28</v>
+      </c>
+      <c r="H23" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="K23" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="L23" s="22" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1789,7 +1948,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>0</v>
@@ -1798,30 +1957,31 @@
         <v>1</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="H24" s="26"/>
-      <c r="L24" s="26"/>
+        <v>140</v>
+      </c>
+      <c r="H24" s="22"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="22"/>
     </row>
     <row r="25" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
@@ -1831,14 +1991,14 @@
         <v>24</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C26" s="17" t="s">
         <v>2</v>
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="17" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
@@ -1848,7 +2008,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>0</v>
@@ -1857,20 +2017,20 @@
         <v>1</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G27" s="16"/>
-      <c r="H27" s="20" t="s">
-        <v>163</v>
+      <c r="H27" s="27" t="s">
+        <v>157</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="K27" s="22" t="s">
-        <v>160</v>
+        <v>126</v>
+      </c>
+      <c r="K27" s="25" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1878,7 +2038,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>0</v>
@@ -1887,24 +2047,24 @@
         <v>1</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G28" s="7"/>
-      <c r="H28" s="21"/>
+      <c r="H28" s="24"/>
       <c r="J28" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="K28" s="23"/>
+        <v>127</v>
+      </c>
+      <c r="K28" s="26"/>
     </row>
     <row r="29" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>27</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>0</v>
@@ -1913,24 +2073,24 @@
         <v>1</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G29" s="7"/>
-      <c r="H29" s="21"/>
+      <c r="H29" s="24"/>
       <c r="J29" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="K29" s="23"/>
+        <v>128</v>
+      </c>
+      <c r="K29" s="26"/>
     </row>
     <row r="30" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>28</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>0</v>
@@ -1939,24 +2099,24 @@
         <v>1</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G30" s="7"/>
-      <c r="H30" s="21"/>
+      <c r="H30" s="24"/>
       <c r="J30" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="K30" s="23"/>
+        <v>129</v>
+      </c>
+      <c r="K30" s="26"/>
     </row>
     <row r="31" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>29</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>0</v>
@@ -1965,24 +2125,27 @@
         <v>1</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G31" s="7"/>
-      <c r="H31" s="26" t="s">
-        <v>162</v>
+      <c r="H31" s="22" t="s">
+        <v>156</v>
       </c>
       <c r="I31" s="13" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="J31"/>
-      <c r="L31" s="26" t="s">
-        <v>148</v>
+      <c r="K31" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="L31" s="22" t="s">
+        <v>144</v>
       </c>
       <c r="M31" s="13" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1990,7 +2153,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>0</v>
@@ -1999,22 +2162,25 @@
         <v>1</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G32" s="7"/>
-      <c r="H32" s="26"/>
+      <c r="H32" s="22"/>
       <c r="J32"/>
-      <c r="L32" s="26"/>
+      <c r="K32" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="L32" s="22"/>
     </row>
     <row r="33" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>31</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>0</v>
@@ -2023,21 +2189,22 @@
         <v>1</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G33" s="7"/>
-      <c r="H33" s="26"/>
-      <c r="L33" s="26"/>
+      <c r="H33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
     </row>
     <row r="34" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>32</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>0</v>
@@ -2046,19 +2213,22 @@
         <v>1</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G34" s="7"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="L34" s="26"/>
-      <c r="M34" s="26" t="s">
-        <v>149</v>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="K34" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2066,7 +2236,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>0</v>
@@ -2075,23 +2245,24 @@
         <v>1</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G35" s="7"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="26"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
     </row>
     <row r="36" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>34</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>0</v>
@@ -2100,17 +2271,20 @@
         <v>1</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H36" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="L36" s="26" t="s">
-        <v>155</v>
+        <v>44</v>
+      </c>
+      <c r="H36" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="K36" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="L36" s="22" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2118,45 +2292,47 @@
         <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
-      <c r="H37" s="26"/>
-      <c r="L37" s="26"/>
+      <c r="H37" s="22"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="22"/>
     </row>
     <row r="38" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>36</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
-      <c r="H38" s="26"/>
-      <c r="L38" s="26"/>
+      <c r="H38" s="22"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="22"/>
     </row>
     <row r="39" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>37</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>0</v>
@@ -2165,21 +2341,22 @@
         <v>1</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H39" s="26"/>
-      <c r="L39" s="26"/>
+        <v>46</v>
+      </c>
+      <c r="H39" s="22"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="22"/>
     </row>
     <row r="40" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>38</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>0</v>
@@ -2188,26 +2365,26 @@
         <v>1</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="H40" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="I40" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="K40" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="L40" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="M40" s="26" t="s">
-        <v>156</v>
+        <v>121</v>
+      </c>
+      <c r="H40" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="I40" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="K40" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="L40" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="M40" s="22" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2215,7 +2392,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>0</v>
@@ -2224,24 +2401,24 @@
         <v>1</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
-      <c r="K41" s="25"/>
-      <c r="L41" s="26"/>
-      <c r="M41" s="26"/>
+        <v>122</v>
+      </c>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22"/>
     </row>
     <row r="42" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>40</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>0</v>
@@ -2250,20 +2427,20 @@
         <v>1</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="K42" s="25"/>
-      <c r="L42" s="26"/>
-      <c r="M42" s="26" t="s">
-        <v>151</v>
+        <v>123</v>
+      </c>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="K42" s="21"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="22" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2271,33 +2448,33 @@
         <v>41</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="26"/>
-      <c r="M43" s="26"/>
+        <v>124</v>
+      </c>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="22"/>
     </row>
     <row r="44" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>42</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>0</v>
@@ -2306,28 +2483,31 @@
         <v>1</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="H44" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="I44" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="J44" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="L44" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="M44" s="26" t="s">
-        <v>153</v>
+        <v>125</v>
+      </c>
+      <c r="H44" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="I44" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="J44" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="K44" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="L44" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="M44" s="22" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2335,7 +2515,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>0</v>
@@ -2344,45 +2524,49 @@
         <v>1</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H45" s="26"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="25"/>
-      <c r="L45" s="26"/>
-      <c r="M45" s="26"/>
+        <v>55</v>
+      </c>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="L45" s="22"/>
+      <c r="M45" s="22"/>
     </row>
     <row r="46" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>44</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
-      <c r="H46" s="26"/>
-      <c r="L46" s="26"/>
+      <c r="H46" s="22"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="22"/>
     </row>
     <row r="47" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>45</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>0</v>
@@ -2391,26 +2575,29 @@
         <v>1</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="H47" s="26"/>
-      <c r="J47" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="L47" s="26"/>
+        <v>76</v>
+      </c>
+      <c r="H47" s="22"/>
+      <c r="J47" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="K47" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="L47" s="22"/>
     </row>
     <row r="48" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>46</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>0</v>
@@ -2419,54 +2606,116 @@
         <v>1</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H48" s="26"/>
-      <c r="J48" s="25"/>
-      <c r="L48" s="26"/>
-    </row>
-    <row r="49" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="H48" s="22"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="L48" s="22"/>
+    </row>
+    <row r="49" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>47</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
     </row>
-    <row r="50" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>48</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
     </row>
+    <row r="52" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H52" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="22"/>
+    </row>
+    <row r="53" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H53" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="I53" s="22"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="22"/>
+    </row>
+    <row r="54" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H54" s="22"/>
+      <c r="I54" s="22"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="22"/>
+    </row>
+    <row r="55" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H55" s="22"/>
+      <c r="I55" s="22"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="22"/>
+    </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="47">
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="H53:K55"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="I18:I21"/>
+    <mergeCell ref="K40:K43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="K36:K39"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="L31:L35"/>
+    <mergeCell ref="K27:K30"/>
+    <mergeCell ref="L12:L15"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="L16:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="L44:L48"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="L40:L43"/>
+    <mergeCell ref="L36:L39"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="M42:M43"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="J12:J13"/>
     <mergeCell ref="J44:J45"/>
@@ -2482,29 +2731,11 @@
     <mergeCell ref="I34:I35"/>
     <mergeCell ref="I40:I41"/>
     <mergeCell ref="I44:I45"/>
-    <mergeCell ref="L12:L15"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="L16:L19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="L44:L48"/>
-    <mergeCell ref="M44:M45"/>
-    <mergeCell ref="L40:L43"/>
-    <mergeCell ref="L36:L39"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="K16:K19"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="L31:L35"/>
     <mergeCell ref="H27:H30"/>
-    <mergeCell ref="K27:K30"/>
-    <mergeCell ref="I18:I21"/>
-    <mergeCell ref="K40:K43"/>
-    <mergeCell ref="I42:I43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="57" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/1. 文档日志/【小车接线】STM32F103C8T6引脚定义.xlsx
+++ b/1. 文档日志/【小车接线】STM32F103C8T6引脚定义.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\JESON\Desktop\正点精英版_野火_江科大\【实战项目】麦轮遥控小车+机械臂\1. 文档日志\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C43ECD8-B9E0-47D5-BE9D-1C537AEAE839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D94690-5CAA-437B-990C-B38B10F74062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{D862D2F7-4BB5-4946-9DE3-EE852D9A2767}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="178">
   <si>
     <t xml:space="preserve">I/O </t>
   </si>
@@ -730,6 +730,10 @@
   </si>
   <si>
     <t>目前还有SPI1、USB/CAN、MCO、I2C2/USART3、ADC12_IN45、GPIOC 模块引脚可供使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">PB8 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -994,26 +998,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1386,8 +1390,8 @@
   </sheetPr>
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J58" sqref="J58"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.6640625" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1408,15 +1412,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1476,7 +1480,7 @@
         <v>172</v>
       </c>
       <c r="G4" s="7"/>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="20" t="s">
         <v>173</v>
       </c>
     </row>
@@ -1498,7 +1502,7 @@
         <v>171</v>
       </c>
       <c r="G5" s="7"/>
-      <c r="H5" s="24"/>
+      <c r="H5" s="20"/>
     </row>
     <row r="6" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
@@ -1518,7 +1522,7 @@
         <v>170</v>
       </c>
       <c r="G6" s="7"/>
-      <c r="H6" s="24"/>
+      <c r="H6" s="20"/>
     </row>
     <row r="7" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
@@ -1623,16 +1627,16 @@
         <v>108</v>
       </c>
       <c r="G12" s="7"/>
-      <c r="H12" s="22" t="s">
+      <c r="H12" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="J12" s="21" t="s">
+      <c r="J12" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="K12" s="22" t="s">
+      <c r="K12" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="L12" s="22" t="s">
+      <c r="L12" s="21" t="s">
         <v>153</v>
       </c>
     </row>
@@ -1654,10 +1658,10 @@
         <v>109</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="H13" s="22"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
+      <c r="H13" s="21"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
     </row>
     <row r="14" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
@@ -1677,14 +1681,14 @@
         <v>110</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="H14" s="22"/>
-      <c r="J14" s="21" t="s">
+      <c r="H14" s="21"/>
+      <c r="J14" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="K14" s="22" t="s">
+      <c r="K14" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="L14" s="22"/>
+      <c r="L14" s="21"/>
     </row>
     <row r="15" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
@@ -1704,10 +1708,10 @@
         <v>111</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="H15" s="22"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="22"/>
+      <c r="H15" s="21"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="21"/>
     </row>
     <row r="16" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
@@ -1727,19 +1731,19 @@
         <v>112</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="H16" s="22" t="s">
+      <c r="H16" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="I16" s="22" t="s">
+      <c r="I16" s="21" t="s">
         <v>175</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="K16" s="21" t="s">
+      <c r="K16" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="L16" s="22" t="s">
+      <c r="L16" s="21" t="s">
         <v>146</v>
       </c>
     </row>
@@ -1761,13 +1765,13 @@
         <v>84</v>
       </c>
       <c r="G17" s="7"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
       <c r="J17" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="K17" s="21"/>
-      <c r="L17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="21"/>
     </row>
     <row r="18" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
@@ -1789,18 +1793,18 @@
       <c r="G18" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="22"/>
+      <c r="H18" s="21"/>
       <c r="I18" s="23" t="s">
         <v>155</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K18" s="22" t="s">
+      <c r="K18" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22" t="s">
+      <c r="L18" s="21"/>
+      <c r="M18" s="21" t="s">
         <v>147</v>
       </c>
     </row>
@@ -1824,14 +1828,14 @@
       <c r="G19" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="H19" s="22"/>
+      <c r="H19" s="21"/>
       <c r="I19" s="23"/>
       <c r="J19" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="22"/>
     </row>
     <row r="20" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
@@ -1853,14 +1857,14 @@
       <c r="G20" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H20" s="22" t="s">
+      <c r="H20" s="21" t="s">
         <v>141</v>
       </c>
       <c r="I20" s="23"/>
-      <c r="K20" s="22" t="s">
+      <c r="K20" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="L20" s="22" t="s">
+      <c r="L20" s="21" t="s">
         <v>141</v>
       </c>
     </row>
@@ -1884,10 +1888,10 @@
       <c r="G21" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H21" s="22"/>
+      <c r="H21" s="21"/>
       <c r="I21" s="23"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
     </row>
     <row r="22" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
@@ -1933,13 +1937,13 @@
       <c r="G23" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H23" s="22" t="s">
+      <c r="H23" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="K23" s="21" t="s">
+      <c r="K23" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="L23" s="22" t="s">
+      <c r="L23" s="21" t="s">
         <v>142</v>
       </c>
     </row>
@@ -1965,9 +1969,9 @@
       <c r="G24" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="H24" s="22"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="22"/>
+      <c r="H24" s="21"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="21"/>
     </row>
     <row r="25" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
@@ -2029,7 +2033,7 @@
       <c r="J27" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="K27" s="25" t="s">
+      <c r="K27" s="24" t="s">
         <v>161</v>
       </c>
     </row>
@@ -2053,11 +2057,11 @@
         <v>116</v>
       </c>
       <c r="G28" s="7"/>
-      <c r="H28" s="24"/>
+      <c r="H28" s="20"/>
       <c r="J28" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="K28" s="26"/>
+      <c r="K28" s="25"/>
     </row>
     <row r="29" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
@@ -2079,11 +2083,11 @@
         <v>117</v>
       </c>
       <c r="G29" s="7"/>
-      <c r="H29" s="24"/>
+      <c r="H29" s="20"/>
       <c r="J29" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="K29" s="26"/>
+      <c r="K29" s="25"/>
     </row>
     <row r="30" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
@@ -2105,11 +2109,11 @@
         <v>73</v>
       </c>
       <c r="G30" s="7"/>
-      <c r="H30" s="24"/>
+      <c r="H30" s="20"/>
       <c r="J30" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="K30" s="26"/>
+      <c r="K30" s="25"/>
     </row>
     <row r="31" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
@@ -2131,7 +2135,7 @@
         <v>118</v>
       </c>
       <c r="G31" s="7"/>
-      <c r="H31" s="22" t="s">
+      <c r="H31" s="21" t="s">
         <v>156</v>
       </c>
       <c r="I31" s="13" t="s">
@@ -2141,7 +2145,7 @@
       <c r="K31" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="L31" s="22" t="s">
+      <c r="L31" s="21" t="s">
         <v>144</v>
       </c>
       <c r="M31" s="13" t="s">
@@ -2168,12 +2172,12 @@
         <v>89</v>
       </c>
       <c r="G32" s="7"/>
-      <c r="H32" s="22"/>
+      <c r="H32" s="21"/>
       <c r="J32"/>
-      <c r="K32" s="22" t="s">
+      <c r="K32" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="L32" s="22"/>
+      <c r="L32" s="21"/>
     </row>
     <row r="33" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
@@ -2195,9 +2199,9 @@
         <v>90</v>
       </c>
       <c r="G33" s="7"/>
-      <c r="H33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
+      <c r="H33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
     </row>
     <row r="34" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
@@ -2219,15 +2223,15 @@
         <v>119</v>
       </c>
       <c r="G34" s="7"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22" t="s">
+      <c r="H34" s="21"/>
+      <c r="I34" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="K34" s="21" t="s">
+      <c r="K34" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="L34" s="22"/>
-      <c r="M34" s="22" t="s">
+      <c r="L34" s="21"/>
+      <c r="M34" s="21" t="s">
         <v>145</v>
       </c>
     </row>
@@ -2251,11 +2255,11 @@
         <v>120</v>
       </c>
       <c r="G35" s="7"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
     </row>
     <row r="36" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
@@ -2277,13 +2281,13 @@
       <c r="G36" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H36" s="22" t="s">
+      <c r="H36" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="K36" s="21" t="s">
+      <c r="K36" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="L36" s="22" t="s">
+      <c r="L36" s="21" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2303,9 +2307,9 @@
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
-      <c r="H37" s="22"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="22"/>
+      <c r="H37" s="21"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="21"/>
     </row>
     <row r="38" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
@@ -2323,9 +2327,9 @@
       </c>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
-      <c r="H38" s="22"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="22"/>
+      <c r="H38" s="21"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="21"/>
     </row>
     <row r="39" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
@@ -2347,9 +2351,9 @@
       <c r="G39" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="H39" s="22"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="22"/>
+      <c r="H39" s="21"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="21"/>
     </row>
     <row r="40" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
@@ -2374,16 +2378,16 @@
       <c r="H40" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="I40" s="22" t="s">
+      <c r="I40" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="K40" s="21" t="s">
+      <c r="K40" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="L40" s="22" t="s">
+      <c r="L40" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="M40" s="22" t="s">
+      <c r="M40" s="21" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2407,11 +2411,11 @@
       <c r="G41" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="22"/>
-      <c r="M41" s="22"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
     </row>
     <row r="42" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
@@ -2433,13 +2437,13 @@
       <c r="G42" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22" t="s">
+      <c r="H42" s="21"/>
+      <c r="I42" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="K42" s="21"/>
-      <c r="L42" s="22"/>
-      <c r="M42" s="22" t="s">
+      <c r="K42" s="22"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="21" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2463,11 +2467,11 @@
       <c r="G43" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
-      <c r="K43" s="21"/>
-      <c r="L43" s="22"/>
-      <c r="M43" s="22"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
     </row>
     <row r="44" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
@@ -2494,19 +2498,19 @@
       <c r="H44" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="I44" s="22" t="s">
+      <c r="I44" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="J44" s="21" t="s">
+      <c r="J44" s="22" t="s">
         <v>131</v>
       </c>
       <c r="K44" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="L44" s="22" t="s">
+      <c r="L44" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="M44" s="22" t="s">
+      <c r="M44" s="21" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2532,14 +2536,14 @@
       <c r="G45" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H45" s="22"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="22"/>
       <c r="K45" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="L45" s="22"/>
-      <c r="M45" s="22"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="21"/>
     </row>
     <row r="46" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
@@ -2557,16 +2561,16 @@
       </c>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
-      <c r="H46" s="22"/>
+      <c r="H46" s="21"/>
       <c r="K46" s="13"/>
-      <c r="L46" s="22"/>
+      <c r="L46" s="21"/>
     </row>
     <row r="47" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>45</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>58</v>
+        <v>177</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>0</v>
@@ -2583,14 +2587,14 @@
       <c r="G47" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="H47" s="22"/>
-      <c r="J47" s="21" t="s">
+      <c r="H47" s="21"/>
+      <c r="J47" s="22" t="s">
         <v>132</v>
       </c>
       <c r="K47" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="L47" s="22"/>
+      <c r="L47" s="21"/>
     </row>
     <row r="48" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
@@ -2614,12 +2618,12 @@
       <c r="G48" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="H48" s="22"/>
-      <c r="J48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="J48" s="22"/>
       <c r="K48" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="L48" s="22"/>
+      <c r="L48" s="21"/>
     </row>
     <row r="49" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
@@ -2656,35 +2660,66 @@
       <c r="G50" s="5"/>
     </row>
     <row r="52" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H52" s="22" t="s">
+      <c r="H52" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="I52" s="22"/>
-      <c r="J52" s="22"/>
-      <c r="K52" s="22"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="21"/>
     </row>
     <row r="53" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H53" s="22" t="s">
+      <c r="H53" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="I53" s="22"/>
-      <c r="J53" s="22"/>
-      <c r="K53" s="22"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="21"/>
     </row>
     <row r="54" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H54" s="22"/>
-      <c r="I54" s="22"/>
-      <c r="J54" s="22"/>
-      <c r="K54" s="22"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="21"/>
     </row>
     <row r="55" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H55" s="22"/>
-      <c r="I55" s="22"/>
-      <c r="J55" s="22"/>
-      <c r="K55" s="22"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="21"/>
+      <c r="K55" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="H31:H35"/>
+    <mergeCell ref="H36:H39"/>
+    <mergeCell ref="H40:H43"/>
+    <mergeCell ref="H44:H48"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="H16:H19"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="H27:H30"/>
+    <mergeCell ref="L12:L15"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="L16:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="L44:L48"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="L40:L43"/>
+    <mergeCell ref="L36:L39"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="L31:L35"/>
+    <mergeCell ref="K27:K30"/>
     <mergeCell ref="H4:H6"/>
     <mergeCell ref="H53:K55"/>
     <mergeCell ref="H52:K52"/>
@@ -2701,37 +2736,6 @@
     <mergeCell ref="K23:K24"/>
     <mergeCell ref="K32:K33"/>
     <mergeCell ref="K34:K35"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="L31:L35"/>
-    <mergeCell ref="K27:K30"/>
-    <mergeCell ref="L12:L15"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="L16:L19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="L44:L48"/>
-    <mergeCell ref="M44:M45"/>
-    <mergeCell ref="L40:L43"/>
-    <mergeCell ref="L36:L39"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="H31:H35"/>
-    <mergeCell ref="H36:H39"/>
-    <mergeCell ref="H40:H43"/>
-    <mergeCell ref="H44:H48"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="H16:H19"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="H27:H30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
